--- a/check/src/main/webapp/file/哲盟返回第三方数据模板.xlsx
+++ b/check/src/main/webapp/file/哲盟返回第三方数据模板.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it025\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="3450"/>
   </bookViews>
   <sheets>
     <sheet name="0-50000条数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t/>
   </si>
@@ -45,9 +45,6 @@
     <t>物品价值</t>
   </si>
   <si>
-    <t>返回日期</t>
-  </si>
-  <si>
     <t>1901741133569</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>2017/05/10 13:40:20</t>
-  </si>
-  <si>
-    <t>2017/05/13</t>
   </si>
   <si>
     <t>1901741133507</t>
@@ -81,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -419,20 +413,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H630"/>
+  <dimension ref="A1:G630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -454,25 +447,22 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -480,25 +470,22 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -506,11 +493,8 @@
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -518,11 +502,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -530,11 +513,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -542,11 +524,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -554,9 +535,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -564,9 +544,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -574,9 +553,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -584,9 +562,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -594,9 +571,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -604,9 +580,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -614,9 +589,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -624,9 +598,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -634,9 +607,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -644,9 +616,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -654,9 +625,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -664,9 +634,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -674,9 +643,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -684,9 +652,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -694,9 +661,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -704,9 +670,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -714,9 +679,8 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -724,9 +688,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -734,9 +697,8 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -744,9 +706,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -754,9 +715,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -764,9 +724,8 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -774,9 +733,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -784,9 +742,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -794,9 +751,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -804,9 +760,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -814,9 +769,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -824,9 +778,8 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -834,9 +787,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -844,9 +796,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -854,9 +805,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -864,9 +814,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -874,9 +823,8 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -884,9 +832,8 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -894,9 +841,8 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -904,9 +850,8 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -914,9 +859,8 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -924,9 +868,8 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -934,9 +877,8 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -944,9 +886,8 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -954,9 +895,8 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -964,9 +904,8 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -974,9 +913,8 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -984,9 +922,8 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -994,9 +931,8 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1004,9 +940,8 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1014,9 +949,8 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1024,9 +958,8 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1034,9 +967,8 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1044,9 +976,8 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1054,9 +985,8 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1064,9 +994,8 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1074,9 +1003,8 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1084,9 +1012,8 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1094,9 +1021,8 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1104,9 +1030,8 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1114,9 +1039,8 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1124,9 +1048,8 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1134,9 +1057,8 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1144,9 +1066,8 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1154,9 +1075,8 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1164,9 +1084,8 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1174,9 +1093,8 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1184,9 +1102,8 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1194,9 +1111,8 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1204,9 +1120,8 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1214,9 +1129,8 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1224,9 +1138,8 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1234,9 +1147,8 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1244,9 +1156,8 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1254,9 +1165,8 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1264,9 +1174,8 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1274,9 +1183,8 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1284,9 +1192,8 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1294,9 +1201,8 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1304,9 +1210,8 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1314,9 +1219,8 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1324,9 +1228,8 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1334,9 +1237,8 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1344,9 +1246,8 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1354,9 +1255,8 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1364,9 +1264,8 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1374,9 +1273,8 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1384,9 +1282,8 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1394,9 +1291,8 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1404,9 +1300,8 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1414,9 +1309,8 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1424,9 +1318,8 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1434,9 +1327,8 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1444,9 +1336,8 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1454,9 +1345,8 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1464,9 +1354,8 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1474,9 +1363,8 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1484,9 +1372,8 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1494,9 +1381,8 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1504,9 +1390,8 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1514,9 +1399,8 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1524,9 +1408,8 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1534,9 +1417,8 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1544,9 +1426,8 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1554,9 +1435,8 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1564,9 +1444,8 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1574,9 +1453,8 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1584,9 +1462,8 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1594,9 +1471,8 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1604,9 +1480,8 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1614,9 +1489,8 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1624,9 +1498,8 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1634,9 +1507,8 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1644,9 +1516,8 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1654,9 +1525,8 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1664,9 +1534,8 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1674,9 +1543,8 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1684,9 +1552,8 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1694,9 +1561,8 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1704,9 +1570,8 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1714,9 +1579,8 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1724,9 +1588,8 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1734,9 +1597,8 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1744,9 +1606,8 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1754,9 +1615,8 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1764,9 +1624,8 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1774,9 +1633,8 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1784,9 +1642,8 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1794,9 +1651,8 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1804,9 +1660,8 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1814,9 +1669,8 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1824,9 +1678,8 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1834,9 +1687,8 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1844,9 +1696,8 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1854,9 +1705,8 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1864,9 +1714,8 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1874,9 +1723,8 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1884,9 +1732,8 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1894,9 +1741,8 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1904,9 +1750,8 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1914,9 +1759,8 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1924,9 +1768,8 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1934,9 +1777,8 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1944,9 +1786,8 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1954,9 +1795,8 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1964,9 +1804,8 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1974,9 +1813,8 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1984,9 +1822,8 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1994,9 +1831,8 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2004,9 +1840,8 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2014,9 +1849,8 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2024,9 +1858,8 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2034,9 +1867,8 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2044,9 +1876,8 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2054,9 +1885,8 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2064,9 +1894,8 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2074,9 +1903,8 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2084,9 +1912,8 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2094,9 +1921,8 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2104,9 +1930,8 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2114,9 +1939,8 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2124,9 +1948,8 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2134,9 +1957,8 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2144,9 +1966,8 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2154,9 +1975,8 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2164,9 +1984,8 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2174,9 +1993,8 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2184,9 +2002,8 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2194,9 +2011,8 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2204,9 +2020,8 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2214,9 +2029,8 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2224,9 +2038,8 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2234,9 +2047,8 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2244,9 +2056,8 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2254,9 +2065,8 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2264,9 +2074,8 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2274,9 +2083,8 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2284,9 +2092,8 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2294,9 +2101,8 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2304,9 +2110,8 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2314,9 +2119,8 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2324,9 +2128,8 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2334,9 +2137,8 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2344,9 +2146,8 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2354,9 +2155,8 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2364,9 +2164,8 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2374,9 +2173,8 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2384,9 +2182,8 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2394,9 +2191,8 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2404,9 +2200,8 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2414,9 +2209,8 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2424,9 +2218,8 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2434,9 +2227,8 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2444,9 +2236,8 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2454,9 +2245,8 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2464,9 +2254,8 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2474,9 +2263,8 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2484,9 +2272,8 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2494,9 +2281,8 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2504,9 +2290,8 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2514,9 +2299,8 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2524,9 +2308,8 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2534,9 +2317,8 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2544,9 +2326,8 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2554,9 +2335,8 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2564,9 +2344,8 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2574,9 +2353,8 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2584,9 +2362,8 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2594,9 +2371,8 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2604,9 +2380,8 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2614,9 +2389,8 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2624,9 +2398,8 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2634,9 +2407,8 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2644,9 +2416,8 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2654,9 +2425,8 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2664,9 +2434,8 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2674,9 +2443,8 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2684,9 +2452,8 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2694,9 +2461,8 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2704,9 +2470,8 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-    </row>
-    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2714,9 +2479,8 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2724,9 +2488,8 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2734,9 +2497,8 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2744,9 +2506,8 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2754,9 +2515,8 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2764,9 +2524,8 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2774,9 +2533,8 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2784,9 +2542,8 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2794,9 +2551,8 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2804,9 +2560,8 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2814,9 +2569,8 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2824,9 +2578,8 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2834,9 +2587,8 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2844,9 +2596,8 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2854,9 +2605,8 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2864,9 +2614,8 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2874,9 +2623,8 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2884,9 +2632,8 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2894,9 +2641,8 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2904,9 +2650,8 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2914,9 +2659,8 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2924,9 +2668,8 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2934,9 +2677,8 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2944,9 +2686,8 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-    </row>
-    <row r="247" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2954,9 +2695,8 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2964,9 +2704,8 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2974,9 +2713,8 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2984,9 +2722,8 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-    </row>
-    <row r="251" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2994,9 +2731,8 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-    </row>
-    <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3004,9 +2740,8 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-    </row>
-    <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3014,9 +2749,8 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3024,9 +2758,8 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-    </row>
-    <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3034,9 +2767,8 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-    </row>
-    <row r="256" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3044,9 +2776,8 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-    </row>
-    <row r="257" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3054,9 +2785,8 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-    </row>
-    <row r="258" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3064,9 +2794,8 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-    </row>
-    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3074,9 +2803,8 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-    </row>
-    <row r="260" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3084,9 +2812,8 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-    </row>
-    <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3094,9 +2821,8 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-    </row>
-    <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3104,9 +2830,8 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-    </row>
-    <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3114,9 +2839,8 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-    </row>
-    <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -3124,9 +2848,8 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-    </row>
-    <row r="265" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -3134,9 +2857,8 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-    </row>
-    <row r="266" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -3144,9 +2866,8 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-    </row>
-    <row r="267" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3154,9 +2875,8 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-    </row>
-    <row r="268" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3164,9 +2884,8 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-    </row>
-    <row r="269" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3174,9 +2893,8 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-    </row>
-    <row r="270" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3184,9 +2902,8 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-    </row>
-    <row r="271" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3194,9 +2911,8 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-    </row>
-    <row r="272" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3204,9 +2920,8 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-    </row>
-    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -3214,9 +2929,8 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-    </row>
-    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -3224,9 +2938,8 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-    </row>
-    <row r="275" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -3234,9 +2947,8 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
-    </row>
-    <row r="276" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -3244,9 +2956,8 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
-    </row>
-    <row r="277" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -3254,9 +2965,8 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
-    </row>
-    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -3264,9 +2974,8 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-    </row>
-    <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -3274,9 +2983,8 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
-    </row>
-    <row r="280" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -3284,9 +2992,8 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-    </row>
-    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -3294,9 +3001,8 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-    </row>
-    <row r="282" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -3304,9 +3010,8 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
-    </row>
-    <row r="283" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -3314,9 +3019,8 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-    </row>
-    <row r="284" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -3324,9 +3028,8 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-    </row>
-    <row r="285" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -3334,9 +3037,8 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-    </row>
-    <row r="286" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -3344,9 +3046,8 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-    </row>
-    <row r="287" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -3354,9 +3055,8 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-    </row>
-    <row r="288" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -3364,9 +3064,8 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-    </row>
-    <row r="289" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -3374,9 +3073,8 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-      <c r="H289" s="1"/>
-    </row>
-    <row r="290" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -3384,9 +3082,8 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-    </row>
-    <row r="291" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -3394,9 +3091,8 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
-    </row>
-    <row r="292" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -3404,9 +3100,8 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" s="1"/>
-    </row>
-    <row r="293" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -3414,9 +3109,8 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-    </row>
-    <row r="294" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -3424,9 +3118,8 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-    </row>
-    <row r="295" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -3434,9 +3127,8 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
-    </row>
-    <row r="296" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -3444,9 +3136,8 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-    </row>
-    <row r="297" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -3454,9 +3145,8 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-    </row>
-    <row r="298" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -3464,9 +3154,8 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-    </row>
-    <row r="299" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -3474,9 +3163,8 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-    </row>
-    <row r="300" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -3484,9 +3172,8 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-    </row>
-    <row r="301" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -3494,9 +3181,8 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
-      <c r="H301" s="1"/>
-    </row>
-    <row r="302" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -3504,9 +3190,8 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-    </row>
-    <row r="303" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -3514,9 +3199,8 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
-      <c r="H303" s="1"/>
-    </row>
-    <row r="304" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -3524,9 +3208,8 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
-      <c r="H304" s="1"/>
-    </row>
-    <row r="305" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -3534,9 +3217,8 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
-    </row>
-    <row r="306" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -3544,9 +3226,8 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-    </row>
-    <row r="307" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -3554,9 +3235,8 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-    </row>
-    <row r="308" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -3564,9 +3244,8 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
-      <c r="H308" s="1"/>
-    </row>
-    <row r="309" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -3574,9 +3253,8 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
-      <c r="H309" s="1"/>
-    </row>
-    <row r="310" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -3584,9 +3262,8 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
-      <c r="H310" s="1"/>
-    </row>
-    <row r="311" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -3594,9 +3271,8 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
-      <c r="H311" s="1"/>
-    </row>
-    <row r="312" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -3604,9 +3280,8 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
-      <c r="H312" s="1"/>
-    </row>
-    <row r="313" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -3614,9 +3289,8 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
-    </row>
-    <row r="314" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -3624,9 +3298,8 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
-      <c r="H314" s="1"/>
-    </row>
-    <row r="315" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -3634,9 +3307,8 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
-      <c r="H315" s="1"/>
-    </row>
-    <row r="316" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -3644,9 +3316,8 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
-      <c r="H316" s="1"/>
-    </row>
-    <row r="317" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -3654,9 +3325,8 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
-      <c r="H317" s="1"/>
-    </row>
-    <row r="318" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -3664,9 +3334,8 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
-      <c r="H318" s="1"/>
-    </row>
-    <row r="319" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -3674,9 +3343,8 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
-      <c r="H319" s="1"/>
-    </row>
-    <row r="320" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -3684,9 +3352,8 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
-      <c r="H320" s="1"/>
-    </row>
-    <row r="321" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -3694,9 +3361,8 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
-      <c r="H321" s="1"/>
-    </row>
-    <row r="322" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -3704,9 +3370,8 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
-      <c r="H322" s="1"/>
-    </row>
-    <row r="323" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -3714,9 +3379,8 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
-      <c r="H323" s="1"/>
-    </row>
-    <row r="324" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -3724,9 +3388,8 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
-      <c r="H324" s="1"/>
-    </row>
-    <row r="325" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -3734,9 +3397,8 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
-    </row>
-    <row r="326" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -3744,9 +3406,8 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-    </row>
-    <row r="327" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -3754,9 +3415,8 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-    </row>
-    <row r="328" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -3764,9 +3424,8 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-    </row>
-    <row r="329" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -3774,9 +3433,8 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-    </row>
-    <row r="330" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -3784,9 +3442,8 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-    </row>
-    <row r="331" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -3794,9 +3451,8 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
-    </row>
-    <row r="332" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -3804,9 +3460,8 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-    </row>
-    <row r="333" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -3814,9 +3469,8 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-    </row>
-    <row r="334" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -3824,9 +3478,8 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-    </row>
-    <row r="335" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -3834,9 +3487,8 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
-      <c r="H335" s="1"/>
-    </row>
-    <row r="336" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -3844,9 +3496,8 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-    </row>
-    <row r="337" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -3854,9 +3505,8 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-    </row>
-    <row r="338" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -3864,9 +3514,8 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-    </row>
-    <row r="339" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -3874,9 +3523,8 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-    </row>
-    <row r="340" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -3884,9 +3532,8 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-    </row>
-    <row r="341" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -3894,9 +3541,8 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
-    </row>
-    <row r="342" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -3904,9 +3550,8 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
-    </row>
-    <row r="343" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -3914,9 +3559,8 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
-      <c r="H343" s="1"/>
-    </row>
-    <row r="344" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -3924,9 +3568,8 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
-      <c r="H344" s="1"/>
-    </row>
-    <row r="345" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -3934,9 +3577,8 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
-      <c r="H345" s="1"/>
-    </row>
-    <row r="346" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -3944,9 +3586,8 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-    </row>
-    <row r="347" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -3954,9 +3595,8 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
-      <c r="H347" s="1"/>
-    </row>
-    <row r="348" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -3964,9 +3604,8 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
-    </row>
-    <row r="349" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -3974,9 +3613,8 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
-    </row>
-    <row r="350" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -3984,9 +3622,8 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
-      <c r="H350" s="1"/>
-    </row>
-    <row r="351" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -3994,9 +3631,8 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
-      <c r="H351" s="1"/>
-    </row>
-    <row r="352" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4004,9 +3640,8 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
-      <c r="H352" s="1"/>
-    </row>
-    <row r="353" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -4014,9 +3649,8 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
-      <c r="H353" s="1"/>
-    </row>
-    <row r="354" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -4024,9 +3658,8 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-    </row>
-    <row r="355" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -4034,9 +3667,8 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-    </row>
-    <row r="356" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -4044,9 +3676,8 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-    </row>
-    <row r="357" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -4054,9 +3685,8 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-    </row>
-    <row r="358" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -4064,9 +3694,8 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-    </row>
-    <row r="359" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -4074,9 +3703,8 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
-    </row>
-    <row r="360" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -4084,9 +3712,8 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
-    </row>
-    <row r="361" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -4094,9 +3721,8 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
-      <c r="H361" s="1"/>
-    </row>
-    <row r="362" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -4104,9 +3730,8 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
-      <c r="H362" s="1"/>
-    </row>
-    <row r="363" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -4114,9 +3739,8 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
-      <c r="H363" s="1"/>
-    </row>
-    <row r="364" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -4124,9 +3748,8 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
-    </row>
-    <row r="365" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -4134,9 +3757,8 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-    </row>
-    <row r="366" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -4144,9 +3766,8 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-    </row>
-    <row r="367" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -4154,9 +3775,8 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
-      <c r="H367" s="1"/>
-    </row>
-    <row r="368" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -4164,9 +3784,8 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
-    </row>
-    <row r="369" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -4174,9 +3793,8 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
-      <c r="H369" s="1"/>
-    </row>
-    <row r="370" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -4184,9 +3802,8 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
-      <c r="H370" s="1"/>
-    </row>
-    <row r="371" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -4194,9 +3811,8 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
-      <c r="H371" s="1"/>
-    </row>
-    <row r="372" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -4204,9 +3820,8 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
-      <c r="H372" s="1"/>
-    </row>
-    <row r="373" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -4214,9 +3829,8 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
-      <c r="H373" s="1"/>
-    </row>
-    <row r="374" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -4224,9 +3838,8 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
-    </row>
-    <row r="375" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -4234,9 +3847,8 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
-      <c r="H375" s="1"/>
-    </row>
-    <row r="376" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -4244,9 +3856,8 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
-    </row>
-    <row r="377" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -4254,9 +3865,8 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
-    </row>
-    <row r="378" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -4264,9 +3874,8 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-    </row>
-    <row r="379" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -4274,9 +3883,8 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
-    </row>
-    <row r="380" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -4284,9 +3892,8 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
-      <c r="H380" s="1"/>
-    </row>
-    <row r="381" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -4294,9 +3901,8 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
-      <c r="H381" s="1"/>
-    </row>
-    <row r="382" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -4304,9 +3910,8 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
-      <c r="H382" s="1"/>
-    </row>
-    <row r="383" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -4314,9 +3919,8 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
-      <c r="H383" s="1"/>
-    </row>
-    <row r="384" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -4324,9 +3928,8 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-    </row>
-    <row r="385" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -4334,9 +3937,8 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-    </row>
-    <row r="386" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -4344,9 +3946,8 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-    </row>
-    <row r="387" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -4354,9 +3955,8 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-    </row>
-    <row r="388" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -4364,9 +3964,8 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-    </row>
-    <row r="389" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -4374,9 +3973,8 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
-      <c r="H389" s="1"/>
-    </row>
-    <row r="390" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -4384,9 +3982,8 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-      <c r="H390" s="1"/>
-    </row>
-    <row r="391" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -4394,9 +3991,8 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
-      <c r="H391" s="1"/>
-    </row>
-    <row r="392" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -4404,9 +4000,8 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
-      <c r="H392" s="1"/>
-    </row>
-    <row r="393" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -4414,9 +4009,8 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-    </row>
-    <row r="394" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -4424,9 +4018,8 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-    </row>
-    <row r="395" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -4434,9 +4027,8 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
-      <c r="H395" s="1"/>
-    </row>
-    <row r="396" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -4444,9 +4036,8 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
-      <c r="H396" s="1"/>
-    </row>
-    <row r="397" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -4454,9 +4045,8 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
-      <c r="H397" s="1"/>
-    </row>
-    <row r="398" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -4464,9 +4054,8 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
-      <c r="H398" s="1"/>
-    </row>
-    <row r="399" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -4474,9 +4063,8 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
-      <c r="H399" s="1"/>
-    </row>
-    <row r="400" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -4484,9 +4072,8 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-    </row>
-    <row r="401" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -4494,9 +4081,8 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-    </row>
-    <row r="402" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -4504,9 +4090,8 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-    </row>
-    <row r="403" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -4514,9 +4099,8 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-    </row>
-    <row r="404" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -4524,9 +4108,8 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-    </row>
-    <row r="405" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -4534,9 +4117,8 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-    </row>
-    <row r="406" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -4544,9 +4126,8 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-    </row>
-    <row r="407" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -4554,9 +4135,8 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-    </row>
-    <row r="408" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -4564,9 +4144,8 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
-      <c r="H408" s="1"/>
-    </row>
-    <row r="409" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -4574,9 +4153,8 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-    </row>
-    <row r="410" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -4584,9 +4162,8 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
-      <c r="H410" s="1"/>
-    </row>
-    <row r="411" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -4594,9 +4171,8 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-    </row>
-    <row r="412" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -4604,9 +4180,8 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-    </row>
-    <row r="413" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -4614,9 +4189,8 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-    </row>
-    <row r="414" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -4624,9 +4198,8 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-    </row>
-    <row r="415" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -4634,9 +4207,8 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-    </row>
-    <row r="416" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -4644,9 +4216,8 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-    </row>
-    <row r="417" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -4654,9 +4225,8 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-    </row>
-    <row r="418" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -4664,9 +4234,8 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-    </row>
-    <row r="419" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -4674,9 +4243,8 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
-      <c r="H419" s="1"/>
-    </row>
-    <row r="420" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -4684,9 +4252,8 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
-      <c r="H420" s="1"/>
-    </row>
-    <row r="421" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -4694,9 +4261,8 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
-      <c r="H421" s="1"/>
-    </row>
-    <row r="422" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -4704,9 +4270,8 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
-      <c r="H422" s="1"/>
-    </row>
-    <row r="423" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -4714,9 +4279,8 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
-      <c r="H423" s="1"/>
-    </row>
-    <row r="424" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -4724,9 +4288,8 @@
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
-      <c r="H424" s="1"/>
-    </row>
-    <row r="425" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -4734,9 +4297,8 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
-      <c r="H425" s="1"/>
-    </row>
-    <row r="426" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -4744,9 +4306,8 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
-      <c r="H426" s="1"/>
-    </row>
-    <row r="427" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -4754,9 +4315,8 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
-      <c r="H427" s="1"/>
-    </row>
-    <row r="428" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -4764,9 +4324,8 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
-      <c r="H428" s="1"/>
-    </row>
-    <row r="429" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -4774,9 +4333,8 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
-      <c r="H429" s="1"/>
-    </row>
-    <row r="430" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -4784,9 +4342,8 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
-      <c r="H430" s="1"/>
-    </row>
-    <row r="431" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -4794,9 +4351,8 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
-      <c r="H431" s="1"/>
-    </row>
-    <row r="432" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -4804,9 +4360,8 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
-      <c r="H432" s="1"/>
-    </row>
-    <row r="433" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -4814,9 +4369,8 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
-      <c r="H433" s="1"/>
-    </row>
-    <row r="434" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -4824,9 +4378,8 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
-      <c r="H434" s="1"/>
-    </row>
-    <row r="435" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -4834,9 +4387,8 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
-      <c r="H435" s="1"/>
-    </row>
-    <row r="436" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -4844,9 +4396,8 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
-      <c r="H436" s="1"/>
-    </row>
-    <row r="437" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -4854,9 +4405,8 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
-      <c r="H437" s="1"/>
-    </row>
-    <row r="438" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -4864,9 +4414,8 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
-      <c r="H438" s="1"/>
-    </row>
-    <row r="439" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -4874,9 +4423,8 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-    </row>
-    <row r="440" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -4884,9 +4432,8 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
-      <c r="H440" s="1"/>
-    </row>
-    <row r="441" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -4894,9 +4441,8 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
-      <c r="H441" s="1"/>
-    </row>
-    <row r="442" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -4904,9 +4450,8 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-    </row>
-    <row r="443" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -4914,9 +4459,8 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
-      <c r="H443" s="1"/>
-    </row>
-    <row r="444" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -4924,9 +4468,8 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
-      <c r="H444" s="1"/>
-    </row>
-    <row r="445" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -4934,9 +4477,8 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
-      <c r="H445" s="1"/>
-    </row>
-    <row r="446" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -4944,9 +4486,8 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
-      <c r="H446" s="1"/>
-    </row>
-    <row r="447" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -4954,9 +4495,8 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
-    </row>
-    <row r="448" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -4964,9 +4504,8 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
-      <c r="H448" s="1"/>
-    </row>
-    <row r="449" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -4974,9 +4513,8 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
-      <c r="H449" s="1"/>
-    </row>
-    <row r="450" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -4984,9 +4522,8 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
-      <c r="H450" s="1"/>
-    </row>
-    <row r="451" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -4994,9 +4531,8 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
-      <c r="H451" s="1"/>
-    </row>
-    <row r="452" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -5004,9 +4540,8 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
-      <c r="H452" s="1"/>
-    </row>
-    <row r="453" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -5014,9 +4549,8 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
-      <c r="H453" s="1"/>
-    </row>
-    <row r="454" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -5024,9 +4558,8 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
-      <c r="H454" s="1"/>
-    </row>
-    <row r="455" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -5034,9 +4567,8 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
-      <c r="H455" s="1"/>
-    </row>
-    <row r="456" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -5044,9 +4576,8 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
-      <c r="H456" s="1"/>
-    </row>
-    <row r="457" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -5054,9 +4585,8 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
-      <c r="H457" s="1"/>
-    </row>
-    <row r="458" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -5064,9 +4594,8 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
-      <c r="H458" s="1"/>
-    </row>
-    <row r="459" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -5074,9 +4603,8 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
-      <c r="H459" s="1"/>
-    </row>
-    <row r="460" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -5084,9 +4612,8 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
-      <c r="H460" s="1"/>
-    </row>
-    <row r="461" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -5094,9 +4621,8 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
-      <c r="H461" s="1"/>
-    </row>
-    <row r="462" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -5104,9 +4630,8 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
-      <c r="H462" s="1"/>
-    </row>
-    <row r="463" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -5114,9 +4639,8 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
-      <c r="H463" s="1"/>
-    </row>
-    <row r="464" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -5124,9 +4648,8 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
-      <c r="H464" s="1"/>
-    </row>
-    <row r="465" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -5134,9 +4657,8 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
-      <c r="H465" s="1"/>
-    </row>
-    <row r="466" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -5144,9 +4666,8 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
-      <c r="H466" s="1"/>
-    </row>
-    <row r="467" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -5154,9 +4675,8 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
-      <c r="H467" s="1"/>
-    </row>
-    <row r="468" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -5164,9 +4684,8 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
-      <c r="H468" s="1"/>
-    </row>
-    <row r="469" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -5174,9 +4693,8 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
-      <c r="H469" s="1"/>
-    </row>
-    <row r="470" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -5184,9 +4702,8 @@
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
-      <c r="H470" s="1"/>
-    </row>
-    <row r="471" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -5194,9 +4711,8 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
-      <c r="H471" s="1"/>
-    </row>
-    <row r="472" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -5204,9 +4720,8 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
-      <c r="H472" s="1"/>
-    </row>
-    <row r="473" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -5214,9 +4729,8 @@
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
-      <c r="H473" s="1"/>
-    </row>
-    <row r="474" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -5224,9 +4738,8 @@
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
-      <c r="H474" s="1"/>
-    </row>
-    <row r="475" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -5234,9 +4747,8 @@
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
-      <c r="H475" s="1"/>
-    </row>
-    <row r="476" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -5244,9 +4756,8 @@
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
-      <c r="H476" s="1"/>
-    </row>
-    <row r="477" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -5254,9 +4765,8 @@
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
-      <c r="H477" s="1"/>
-    </row>
-    <row r="478" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -5264,9 +4774,8 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
-      <c r="H478" s="1"/>
-    </row>
-    <row r="479" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -5274,9 +4783,8 @@
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
-      <c r="H479" s="1"/>
-    </row>
-    <row r="480" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -5284,9 +4792,8 @@
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
-      <c r="H480" s="1"/>
-    </row>
-    <row r="481" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -5294,9 +4801,8 @@
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
-      <c r="H481" s="1"/>
-    </row>
-    <row r="482" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -5304,9 +4810,8 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
-      <c r="H482" s="1"/>
-    </row>
-    <row r="483" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -5314,9 +4819,8 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
-      <c r="H483" s="1"/>
-    </row>
-    <row r="484" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -5324,9 +4828,8 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
-      <c r="H484" s="1"/>
-    </row>
-    <row r="485" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -5334,9 +4837,8 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
-      <c r="H485" s="1"/>
-    </row>
-    <row r="486" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -5344,9 +4846,8 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
-      <c r="H486" s="1"/>
-    </row>
-    <row r="487" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -5354,9 +4855,8 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
-      <c r="H487" s="1"/>
-    </row>
-    <row r="488" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -5364,9 +4864,8 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
-      <c r="H488" s="1"/>
-    </row>
-    <row r="489" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -5374,9 +4873,8 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
-      <c r="H489" s="1"/>
-    </row>
-    <row r="490" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -5384,9 +4882,8 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
-      <c r="H490" s="1"/>
-    </row>
-    <row r="491" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -5394,9 +4891,8 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
-      <c r="H491" s="1"/>
-    </row>
-    <row r="492" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -5404,9 +4900,8 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
-      <c r="H492" s="1"/>
-    </row>
-    <row r="493" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -5414,9 +4909,8 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
-      <c r="H493" s="1"/>
-    </row>
-    <row r="494" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -5424,9 +4918,8 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
-      <c r="H494" s="1"/>
-    </row>
-    <row r="495" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -5434,9 +4927,8 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
-      <c r="H495" s="1"/>
-    </row>
-    <row r="496" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -5444,9 +4936,8 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
-      <c r="H496" s="1"/>
-    </row>
-    <row r="497" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -5454,9 +4945,8 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
-      <c r="H497" s="1"/>
-    </row>
-    <row r="498" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -5464,9 +4954,8 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
-      <c r="H498" s="1"/>
-    </row>
-    <row r="499" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -5474,9 +4963,8 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
-      <c r="H499" s="1"/>
-    </row>
-    <row r="500" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -5484,9 +4972,8 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
-      <c r="H500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -5494,9 +4981,8 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
-      <c r="H501" s="1"/>
-    </row>
-    <row r="502" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -5504,9 +4990,8 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
-      <c r="H502" s="1"/>
-    </row>
-    <row r="503" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -5514,9 +4999,8 @@
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
-      <c r="H503" s="1"/>
-    </row>
-    <row r="504" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -5524,9 +5008,8 @@
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
-      <c r="H504" s="1"/>
-    </row>
-    <row r="505" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -5534,9 +5017,8 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
-      <c r="H505" s="1"/>
-    </row>
-    <row r="506" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -5544,9 +5026,8 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
-      <c r="H506" s="1"/>
-    </row>
-    <row r="507" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -5554,9 +5035,8 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
-      <c r="H507" s="1"/>
-    </row>
-    <row r="508" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -5564,9 +5044,8 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
-      <c r="H508" s="1"/>
-    </row>
-    <row r="509" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -5574,9 +5053,8 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
-      <c r="H509" s="1"/>
-    </row>
-    <row r="510" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -5584,9 +5062,8 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
-      <c r="H510" s="1"/>
-    </row>
-    <row r="511" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -5594,9 +5071,8 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
-      <c r="H511" s="1"/>
-    </row>
-    <row r="512" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -5604,9 +5080,8 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
-      <c r="H512" s="1"/>
-    </row>
-    <row r="513" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -5614,9 +5089,8 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
-      <c r="H513" s="1"/>
-    </row>
-    <row r="514" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -5624,9 +5098,8 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
-      <c r="H514" s="1"/>
-    </row>
-    <row r="515" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -5634,9 +5107,8 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
-      <c r="H515" s="1"/>
-    </row>
-    <row r="516" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -5644,9 +5116,8 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
-      <c r="H516" s="1"/>
-    </row>
-    <row r="517" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -5654,9 +5125,8 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
-      <c r="H517" s="1"/>
-    </row>
-    <row r="518" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -5664,9 +5134,8 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
-      <c r="H518" s="1"/>
-    </row>
-    <row r="519" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="519" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -5674,9 +5143,8 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
-      <c r="H519" s="1"/>
-    </row>
-    <row r="520" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -5684,9 +5152,8 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
-      <c r="H520" s="1"/>
-    </row>
-    <row r="521" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -5694,9 +5161,8 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
-      <c r="H521" s="1"/>
-    </row>
-    <row r="522" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="522" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -5704,9 +5170,8 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
-      <c r="H522" s="1"/>
-    </row>
-    <row r="523" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -5714,9 +5179,8 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
-      <c r="H523" s="1"/>
-    </row>
-    <row r="524" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="524" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -5724,9 +5188,8 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
-      <c r="H524" s="1"/>
-    </row>
-    <row r="525" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="525" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -5734,9 +5197,8 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
-      <c r="H525" s="1"/>
-    </row>
-    <row r="526" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="526" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -5744,9 +5206,8 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
-      <c r="H526" s="1"/>
-    </row>
-    <row r="527" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="527" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -5754,9 +5215,8 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
-      <c r="H527" s="1"/>
-    </row>
-    <row r="528" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -5764,9 +5224,8 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
-      <c r="H528" s="1"/>
-    </row>
-    <row r="529" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -5774,9 +5233,8 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
-      <c r="H529" s="1"/>
-    </row>
-    <row r="530" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -5784,9 +5242,8 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
-      <c r="H530" s="1"/>
-    </row>
-    <row r="531" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -5794,9 +5251,8 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
-      <c r="H531" s="1"/>
-    </row>
-    <row r="532" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -5804,9 +5260,8 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
-      <c r="H532" s="1"/>
-    </row>
-    <row r="533" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -5814,9 +5269,8 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
-      <c r="H533" s="1"/>
-    </row>
-    <row r="534" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -5824,9 +5278,8 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
-      <c r="H534" s="1"/>
-    </row>
-    <row r="535" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -5834,9 +5287,8 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
-      <c r="H535" s="1"/>
-    </row>
-    <row r="536" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -5844,9 +5296,8 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
-      <c r="H536" s="1"/>
-    </row>
-    <row r="537" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -5854,9 +5305,8 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
-      <c r="H537" s="1"/>
-    </row>
-    <row r="538" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -5864,9 +5314,8 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
-      <c r="H538" s="1"/>
-    </row>
-    <row r="539" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -5874,9 +5323,8 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
-      <c r="H539" s="1"/>
-    </row>
-    <row r="540" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -5884,9 +5332,8 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
-      <c r="H540" s="1"/>
-    </row>
-    <row r="541" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -5894,9 +5341,8 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
-      <c r="H541" s="1"/>
-    </row>
-    <row r="542" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -5904,9 +5350,8 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
-      <c r="H542" s="1"/>
-    </row>
-    <row r="543" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -5914,9 +5359,8 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
-      <c r="H543" s="1"/>
-    </row>
-    <row r="544" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -5924,9 +5368,8 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
-      <c r="H544" s="1"/>
-    </row>
-    <row r="545" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -5934,9 +5377,8 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
-      <c r="H545" s="1"/>
-    </row>
-    <row r="546" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -5944,9 +5386,8 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
-      <c r="H546" s="1"/>
-    </row>
-    <row r="547" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -5954,9 +5395,8 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
-      <c r="H547" s="1"/>
-    </row>
-    <row r="548" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -5964,9 +5404,8 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
-      <c r="H548" s="1"/>
-    </row>
-    <row r="549" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -5974,9 +5413,8 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
-      <c r="H549" s="1"/>
-    </row>
-    <row r="550" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -5984,9 +5422,8 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
-      <c r="H550" s="1"/>
-    </row>
-    <row r="551" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -5994,9 +5431,8 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
-      <c r="H551" s="1"/>
-    </row>
-    <row r="552" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -6004,9 +5440,8 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
-      <c r="H552" s="1"/>
-    </row>
-    <row r="553" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -6014,9 +5449,8 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
-      <c r="H553" s="1"/>
-    </row>
-    <row r="554" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -6024,9 +5458,8 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
-      <c r="H554" s="1"/>
-    </row>
-    <row r="555" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -6034,9 +5467,8 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
-      <c r="H555" s="1"/>
-    </row>
-    <row r="556" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -6044,9 +5476,8 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
-      <c r="H556" s="1"/>
-    </row>
-    <row r="557" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -6054,9 +5485,8 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
-      <c r="H557" s="1"/>
-    </row>
-    <row r="558" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -6064,9 +5494,8 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
-      <c r="H558" s="1"/>
-    </row>
-    <row r="559" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -6074,9 +5503,8 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
-      <c r="H559" s="1"/>
-    </row>
-    <row r="560" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -6084,9 +5512,8 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
-      <c r="H560" s="1"/>
-    </row>
-    <row r="561" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -6094,9 +5521,8 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
-      <c r="H561" s="1"/>
-    </row>
-    <row r="562" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -6104,9 +5530,8 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
-      <c r="H562" s="1"/>
-    </row>
-    <row r="563" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -6114,9 +5539,8 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
-      <c r="H563" s="1"/>
-    </row>
-    <row r="564" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -6124,9 +5548,8 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
-      <c r="H564" s="1"/>
-    </row>
-    <row r="565" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -6134,9 +5557,8 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
-      <c r="H565" s="1"/>
-    </row>
-    <row r="566" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -6144,9 +5566,8 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
-      <c r="H566" s="1"/>
-    </row>
-    <row r="567" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -6154,9 +5575,8 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
-      <c r="H567" s="1"/>
-    </row>
-    <row r="568" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -6164,9 +5584,8 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
-      <c r="H568" s="1"/>
-    </row>
-    <row r="569" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -6174,9 +5593,8 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
-      <c r="H569" s="1"/>
-    </row>
-    <row r="570" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -6184,9 +5602,8 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
-      <c r="H570" s="1"/>
-    </row>
-    <row r="571" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -6194,9 +5611,8 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
-      <c r="H571" s="1"/>
-    </row>
-    <row r="572" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -6204,9 +5620,8 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
-      <c r="H572" s="1"/>
-    </row>
-    <row r="573" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -6214,9 +5629,8 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
-      <c r="H573" s="1"/>
-    </row>
-    <row r="574" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -6224,9 +5638,8 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
-      <c r="H574" s="1"/>
-    </row>
-    <row r="575" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -6234,9 +5647,8 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
-      <c r="H575" s="1"/>
-    </row>
-    <row r="576" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -6244,9 +5656,8 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
-      <c r="H576" s="1"/>
-    </row>
-    <row r="577" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -6254,9 +5665,8 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
-      <c r="H577" s="1"/>
-    </row>
-    <row r="578" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -6264,9 +5674,8 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
-      <c r="H578" s="1"/>
-    </row>
-    <row r="579" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -6274,9 +5683,8 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
-      <c r="H579" s="1"/>
-    </row>
-    <row r="580" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -6284,9 +5692,8 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
-      <c r="H580" s="1"/>
-    </row>
-    <row r="581" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -6294,9 +5701,8 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
-      <c r="H581" s="1"/>
-    </row>
-    <row r="582" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -6304,9 +5710,8 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
-      <c r="H582" s="1"/>
-    </row>
-    <row r="583" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -6314,9 +5719,8 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
-      <c r="H583" s="1"/>
-    </row>
-    <row r="584" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -6324,9 +5728,8 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
-      <c r="H584" s="1"/>
-    </row>
-    <row r="585" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -6334,9 +5737,8 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
       <c r="G585" s="1"/>
-      <c r="H585" s="1"/>
-    </row>
-    <row r="586" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -6344,9 +5746,8 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
       <c r="G586" s="1"/>
-      <c r="H586" s="1"/>
-    </row>
-    <row r="587" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -6354,9 +5755,8 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
       <c r="G587" s="1"/>
-      <c r="H587" s="1"/>
-    </row>
-    <row r="588" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -6364,9 +5764,8 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
       <c r="G588" s="1"/>
-      <c r="H588" s="1"/>
-    </row>
-    <row r="589" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -6374,9 +5773,8 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
-      <c r="H589" s="1"/>
-    </row>
-    <row r="590" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -6384,9 +5782,8 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
       <c r="G590" s="1"/>
-      <c r="H590" s="1"/>
-    </row>
-    <row r="591" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -6394,9 +5791,8 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
       <c r="G591" s="1"/>
-      <c r="H591" s="1"/>
-    </row>
-    <row r="592" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -6404,9 +5800,8 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
       <c r="G592" s="1"/>
-      <c r="H592" s="1"/>
-    </row>
-    <row r="593" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -6414,9 +5809,8 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
-      <c r="H593" s="1"/>
-    </row>
-    <row r="594" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -6424,9 +5818,8 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
-      <c r="H594" s="1"/>
-    </row>
-    <row r="595" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -6434,9 +5827,8 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
-      <c r="H595" s="1"/>
-    </row>
-    <row r="596" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -6444,9 +5836,8 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
-      <c r="H596" s="1"/>
-    </row>
-    <row r="597" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -6454,9 +5845,8 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
-      <c r="H597" s="1"/>
-    </row>
-    <row r="598" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -6464,9 +5854,8 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
-      <c r="H598" s="1"/>
-    </row>
-    <row r="599" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -6474,9 +5863,8 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
-      <c r="H599" s="1"/>
-    </row>
-    <row r="600" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -6484,9 +5872,8 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
-      <c r="H600" s="1"/>
-    </row>
-    <row r="601" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -6494,9 +5881,8 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
-      <c r="H601" s="1"/>
-    </row>
-    <row r="602" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -6504,9 +5890,8 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
-      <c r="H602" s="1"/>
-    </row>
-    <row r="603" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -6514,9 +5899,8 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
-      <c r="H603" s="1"/>
-    </row>
-    <row r="604" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -6524,9 +5908,8 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
-      <c r="H604" s="1"/>
-    </row>
-    <row r="605" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -6534,9 +5917,8 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
       <c r="G605" s="1"/>
-      <c r="H605" s="1"/>
-    </row>
-    <row r="606" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -6544,9 +5926,8 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
-      <c r="H606" s="1"/>
-    </row>
-    <row r="607" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -6554,9 +5935,8 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
-      <c r="H607" s="1"/>
-    </row>
-    <row r="608" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -6564,9 +5944,8 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
-      <c r="H608" s="1"/>
-    </row>
-    <row r="609" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -6574,9 +5953,8 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
-      <c r="H609" s="1"/>
-    </row>
-    <row r="610" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -6584,9 +5962,8 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
-      <c r="H610" s="1"/>
-    </row>
-    <row r="611" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -6594,9 +5971,8 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
       <c r="G611" s="1"/>
-      <c r="H611" s="1"/>
-    </row>
-    <row r="612" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -6604,9 +5980,8 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
-      <c r="H612" s="1"/>
-    </row>
-    <row r="613" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -6614,9 +5989,8 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
-      <c r="H613" s="1"/>
-    </row>
-    <row r="614" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -6624,9 +5998,8 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
-      <c r="H614" s="1"/>
-    </row>
-    <row r="615" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -6634,9 +6007,8 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
-      <c r="H615" s="1"/>
-    </row>
-    <row r="616" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -6644,9 +6016,8 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
-      <c r="H616" s="1"/>
-    </row>
-    <row r="617" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -6654,9 +6025,8 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
-      <c r="H617" s="1"/>
-    </row>
-    <row r="618" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -6664,9 +6034,8 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
       <c r="G618" s="1"/>
-      <c r="H618" s="1"/>
-    </row>
-    <row r="619" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -6674,9 +6043,8 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
       <c r="G619" s="1"/>
-      <c r="H619" s="1"/>
-    </row>
-    <row r="620" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -6684,9 +6052,8 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
       <c r="G620" s="1"/>
-      <c r="H620" s="1"/>
-    </row>
-    <row r="621" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -6694,9 +6061,8 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
-      <c r="H621" s="1"/>
-    </row>
-    <row r="622" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -6704,9 +6070,8 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
-      <c r="H622" s="1"/>
-    </row>
-    <row r="623" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -6714,9 +6079,8 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
       <c r="G623" s="1"/>
-      <c r="H623" s="1"/>
-    </row>
-    <row r="624" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -6724,9 +6088,8 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
       <c r="G624" s="1"/>
-      <c r="H624" s="1"/>
-    </row>
-    <row r="625" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -6734,9 +6097,8 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
-      <c r="H625" s="1"/>
-    </row>
-    <row r="626" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -6744,9 +6106,8 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
-      <c r="H626" s="1"/>
-    </row>
-    <row r="627" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -6754,9 +6115,8 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
-      <c r="H627" s="1"/>
-    </row>
-    <row r="628" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -6764,9 +6124,8 @@
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
-      <c r="H628" s="1"/>
-    </row>
-    <row r="629" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -6774,9 +6133,8 @@
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
-      <c r="H629" s="1"/>
-    </row>
-    <row r="630" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -6784,12 +6142,11 @@
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
-      <c r="H630" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/check/src/main/webapp/file/哲盟返回第三方数据模板.xlsx
+++ b/check/src/main/webapp/file/哲盟返回第三方数据模板.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\搜狗高速下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t/>
   </si>
@@ -45,9 +45,6 @@
     <t>物品价值</t>
   </si>
   <si>
-    <t>1901741133569</t>
-  </si>
-  <si>
     <t>配送成功</t>
   </si>
   <si>
@@ -68,15 +65,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快递单号和返回日期为必填项</t>
+    <t>客户条码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1901741133569</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递单号为必填项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改条码可以直接修改，但必须谨慎！！！！！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,6 +120,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,11 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,88 +443,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G630"/>
+  <dimension ref="A1:H630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="2" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -502,50 +541,57 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -553,8 +599,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -562,8 +609,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -571,8 +619,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -580,8 +629,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -589,8 +639,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -598,8 +649,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -607,8 +659,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -616,8 +669,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -625,8 +679,9 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -634,8 +689,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -643,8 +699,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -652,8 +709,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -661,8 +719,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -670,8 +729,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -679,8 +739,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -688,8 +749,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -697,8 +759,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -706,8 +769,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -715,8 +779,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -724,8 +789,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -733,8 +799,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -742,8 +809,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -751,8 +819,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -760,8 +829,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -769,8 +839,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -778,8 +849,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -787,8 +859,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -796,8 +869,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -805,8 +879,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -814,8 +889,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -823,8 +899,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -832,8 +909,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -841,8 +919,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -850,8 +929,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -859,8 +939,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -868,8 +949,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -877,8 +959,9 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -886,8 +969,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -895,8 +979,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -904,8 +989,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -913,8 +999,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -922,8 +1009,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -931,8 +1019,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -940,8 +1029,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -949,8 +1039,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -958,8 +1049,9 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -967,8 +1059,9 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -976,8 +1069,9 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -985,8 +1079,9 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -994,8 +1089,9 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1003,8 +1099,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1012,8 +1109,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1021,8 +1119,9 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1030,8 +1129,9 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1039,8 +1139,9 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1048,8 +1149,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1057,8 +1159,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1066,8 +1169,9 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1075,8 +1179,9 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1084,8 +1189,9 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1093,8 +1199,9 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1102,8 +1209,9 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1111,8 +1219,9 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1120,8 +1229,9 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1129,8 +1239,9 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1138,8 +1249,9 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1147,8 +1259,9 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1156,8 +1269,9 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1165,8 +1279,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1174,8 +1289,9 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1183,8 +1299,9 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1192,8 +1309,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1201,8 +1319,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1210,8 +1329,9 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1219,8 +1339,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1228,8 +1349,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1237,8 +1359,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1246,8 +1369,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1255,8 +1379,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1264,8 +1389,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1273,8 +1399,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1282,8 +1409,9 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1291,8 +1419,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1300,8 +1429,9 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1309,8 +1439,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1318,8 +1449,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1327,8 +1459,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1336,8 +1469,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1345,8 +1479,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1354,8 +1489,9 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1363,8 +1499,9 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1372,8 +1509,9 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1381,8 +1519,9 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1390,8 +1529,9 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1399,8 +1539,9 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1408,8 +1549,9 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1417,8 +1559,9 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1426,8 +1569,9 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1435,8 +1579,9 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1444,8 +1589,9 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1453,8 +1599,9 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1462,8 +1609,9 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1471,8 +1619,9 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1480,8 +1629,9 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1489,8 +1639,9 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1498,8 +1649,9 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1507,8 +1659,9 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1516,8 +1669,9 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1525,8 +1679,9 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1534,8 +1689,9 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1543,8 +1699,9 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1552,8 +1709,9 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1561,8 +1719,9 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1570,8 +1729,9 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1579,8 +1739,9 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1588,8 +1749,9 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1597,8 +1759,9 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1606,8 +1769,9 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1615,8 +1779,9 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1624,8 +1789,9 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1633,8 +1799,9 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1642,8 +1809,9 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1651,8 +1819,9 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1660,8 +1829,9 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1669,8 +1839,9 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1678,8 +1849,9 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1687,8 +1859,9 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1696,8 +1869,9 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1705,8 +1879,9 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1714,8 +1889,9 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1723,8 +1899,9 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1732,8 +1909,9 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1741,8 +1919,9 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1750,8 +1929,9 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1759,8 +1939,9 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1768,8 +1949,9 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1777,8 +1959,9 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1786,8 +1969,9 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1795,8 +1979,9 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1804,8 +1989,9 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1813,8 +1999,9 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1822,8 +2009,9 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1831,8 +2019,9 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1840,8 +2029,9 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1849,8 +2039,9 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1858,8 +2049,9 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1867,8 +2059,9 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1876,8 +2069,9 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1885,8 +2079,9 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1894,8 +2089,9 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1903,8 +2099,9 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1912,8 +2109,9 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1921,8 +2119,9 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1930,8 +2129,9 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1939,8 +2139,9 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1948,8 +2149,9 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1957,8 +2159,9 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1966,8 +2169,9 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1975,8 +2179,9 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1984,8 +2189,9 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1993,8 +2199,9 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2002,8 +2209,9 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2011,8 +2219,9 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2020,8 +2229,9 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2029,8 +2239,9 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2038,8 +2249,9 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2047,8 +2259,9 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2056,8 +2269,9 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2065,8 +2279,9 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2074,8 +2289,9 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2083,8 +2299,9 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2092,8 +2309,9 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2101,8 +2319,9 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2110,8 +2329,9 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2119,8 +2339,9 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2128,8 +2349,9 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2137,8 +2359,9 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2146,8 +2369,9 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2155,8 +2379,9 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2164,8 +2389,9 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2173,8 +2399,9 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2182,8 +2409,9 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2191,8 +2419,9 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2200,8 +2429,9 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2209,8 +2439,9 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2218,8 +2449,9 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2227,8 +2459,9 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2236,8 +2469,9 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2245,8 +2479,9 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2254,8 +2489,9 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2263,8 +2499,9 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2272,8 +2509,9 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2281,8 +2519,9 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2290,8 +2529,9 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2299,8 +2539,9 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2308,8 +2549,9 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2317,8 +2559,9 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2326,8 +2569,9 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2335,8 +2579,9 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2344,8 +2589,9 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2353,8 +2599,9 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2362,8 +2609,9 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2371,8 +2619,9 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2380,8 +2629,9 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2389,8 +2639,9 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2398,8 +2649,9 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2407,8 +2659,9 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2416,8 +2669,9 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2425,8 +2679,9 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2434,8 +2689,9 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2443,8 +2699,9 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2452,8 +2709,9 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2461,8 +2719,9 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2470,8 +2729,9 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2479,8 +2739,9 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2488,8 +2749,9 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2497,8 +2759,9 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2506,8 +2769,9 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2515,8 +2779,9 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2524,8 +2789,9 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2533,8 +2799,9 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2542,8 +2809,9 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2551,8 +2819,9 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2560,8 +2829,9 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2569,8 +2839,9 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2578,8 +2849,9 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2587,8 +2859,9 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2596,8 +2869,9 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2605,8 +2879,9 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2614,8 +2889,9 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2623,8 +2899,9 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2632,8 +2909,9 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2641,8 +2919,9 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2650,8 +2929,9 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2659,8 +2939,9 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2668,8 +2949,9 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2677,8 +2959,9 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2686,8 +2969,9 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2695,8 +2979,9 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2704,8 +2989,9 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2713,8 +2999,9 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2722,8 +3009,9 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-    </row>
-    <row r="251" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2731,8 +3019,9 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-    </row>
-    <row r="252" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2740,8 +3029,9 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-    </row>
-    <row r="253" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2749,8 +3039,9 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-    </row>
-    <row r="254" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2758,8 +3049,9 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2767,8 +3059,9 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-    </row>
-    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2776,8 +3069,9 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-    </row>
-    <row r="257" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2785,8 +3079,9 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-    </row>
-    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2794,8 +3089,9 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -2803,8 +3099,9 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-    </row>
-    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -2812,8 +3109,9 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-    </row>
-    <row r="261" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -2821,8 +3119,9 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-    </row>
-    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -2830,8 +3129,9 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-    </row>
-    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -2839,8 +3139,9 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-    </row>
-    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -2848,8 +3149,9 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-    </row>
-    <row r="265" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -2857,8 +3159,9 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-    </row>
-    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -2866,8 +3169,9 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-    </row>
-    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -2875,8 +3179,9 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-    </row>
-    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -2884,8 +3189,9 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-    </row>
-    <row r="269" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -2893,8 +3199,9 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-    </row>
-    <row r="270" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -2902,8 +3209,9 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-    </row>
-    <row r="271" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -2911,8 +3219,9 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-    </row>
-    <row r="272" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -2920,8 +3229,9 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-    </row>
-    <row r="273" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -2929,8 +3239,9 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-    </row>
-    <row r="274" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -2938,8 +3249,9 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-    </row>
-    <row r="275" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -2947,8 +3259,9 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
-    </row>
-    <row r="276" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -2956,8 +3269,9 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -2965,8 +3279,9 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-    </row>
-    <row r="278" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -2974,8 +3289,9 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
-    </row>
-    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -2983,8 +3299,9 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
-    </row>
-    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -2992,8 +3309,9 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
-    </row>
-    <row r="281" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -3001,8 +3319,9 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-    </row>
-    <row r="282" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H281" s="1"/>
+    </row>
+    <row r="282" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -3010,8 +3329,9 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
-    </row>
-    <row r="283" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -3019,8 +3339,9 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H283" s="1"/>
+    </row>
+    <row r="284" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -3028,8 +3349,9 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
-    </row>
-    <row r="285" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -3037,8 +3359,9 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-    </row>
-    <row r="286" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H285" s="1"/>
+    </row>
+    <row r="286" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -3046,8 +3369,9 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
-    </row>
-    <row r="287" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H286" s="1"/>
+    </row>
+    <row r="287" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -3055,8 +3379,9 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
-    </row>
-    <row r="288" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H287" s="1"/>
+    </row>
+    <row r="288" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -3064,8 +3389,9 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
-    </row>
-    <row r="289" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -3073,8 +3399,9 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H289" s="1"/>
+    </row>
+    <row r="290" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -3082,8 +3409,9 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-    </row>
-    <row r="291" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -3091,8 +3419,9 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
-    </row>
-    <row r="292" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H291" s="1"/>
+    </row>
+    <row r="292" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -3100,8 +3429,9 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-    </row>
-    <row r="293" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H292" s="1"/>
+    </row>
+    <row r="293" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -3109,8 +3439,9 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-    </row>
-    <row r="294" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H293" s="1"/>
+    </row>
+    <row r="294" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -3118,8 +3449,9 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
-    </row>
-    <row r="295" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H294" s="1"/>
+    </row>
+    <row r="295" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -3127,8 +3459,9 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H295" s="1"/>
+    </row>
+    <row r="296" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -3136,8 +3469,9 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
-    </row>
-    <row r="297" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H296" s="1"/>
+    </row>
+    <row r="297" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -3145,8 +3479,9 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-    </row>
-    <row r="298" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H297" s="1"/>
+    </row>
+    <row r="298" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -3154,8 +3489,9 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
-    </row>
-    <row r="299" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H298" s="1"/>
+    </row>
+    <row r="299" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -3163,8 +3499,9 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
-    </row>
-    <row r="300" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H299" s="1"/>
+    </row>
+    <row r="300" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -3172,8 +3509,9 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
-    </row>
-    <row r="301" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H300" s="1"/>
+    </row>
+    <row r="301" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -3181,8 +3519,9 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
-    </row>
-    <row r="302" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H301" s="1"/>
+    </row>
+    <row r="302" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -3190,8 +3529,9 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
-    </row>
-    <row r="303" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H302" s="1"/>
+    </row>
+    <row r="303" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -3199,8 +3539,9 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
-    </row>
-    <row r="304" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H303" s="1"/>
+    </row>
+    <row r="304" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -3208,8 +3549,9 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
-    </row>
-    <row r="305" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H304" s="1"/>
+    </row>
+    <row r="305" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -3217,8 +3559,9 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
-    </row>
-    <row r="306" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H305" s="1"/>
+    </row>
+    <row r="306" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -3226,8 +3569,9 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
-    </row>
-    <row r="307" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H306" s="1"/>
+    </row>
+    <row r="307" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -3235,8 +3579,9 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
-    </row>
-    <row r="308" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H307" s="1"/>
+    </row>
+    <row r="308" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -3244,8 +3589,9 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
-    </row>
-    <row r="309" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H308" s="1"/>
+    </row>
+    <row r="309" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -3253,8 +3599,9 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
-    </row>
-    <row r="310" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H309" s="1"/>
+    </row>
+    <row r="310" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -3262,8 +3609,9 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
-    </row>
-    <row r="311" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H310" s="1"/>
+    </row>
+    <row r="311" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -3271,8 +3619,9 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
-    </row>
-    <row r="312" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H311" s="1"/>
+    </row>
+    <row r="312" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -3280,8 +3629,9 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
-    </row>
-    <row r="313" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H312" s="1"/>
+    </row>
+    <row r="313" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -3289,8 +3639,9 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
-    </row>
-    <row r="314" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H313" s="1"/>
+    </row>
+    <row r="314" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -3298,8 +3649,9 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
-    </row>
-    <row r="315" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H314" s="1"/>
+    </row>
+    <row r="315" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -3307,8 +3659,9 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
-    </row>
-    <row r="316" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H315" s="1"/>
+    </row>
+    <row r="316" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -3316,8 +3669,9 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
-    </row>
-    <row r="317" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H316" s="1"/>
+    </row>
+    <row r="317" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -3325,8 +3679,9 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
-    </row>
-    <row r="318" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H317" s="1"/>
+    </row>
+    <row r="318" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -3334,8 +3689,9 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
-    </row>
-    <row r="319" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H318" s="1"/>
+    </row>
+    <row r="319" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -3343,8 +3699,9 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
-    </row>
-    <row r="320" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H319" s="1"/>
+    </row>
+    <row r="320" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -3352,8 +3709,9 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
-    </row>
-    <row r="321" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H320" s="1"/>
+    </row>
+    <row r="321" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -3361,8 +3719,9 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
-    </row>
-    <row r="322" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H321" s="1"/>
+    </row>
+    <row r="322" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -3370,8 +3729,9 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
-    </row>
-    <row r="323" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H322" s="1"/>
+    </row>
+    <row r="323" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -3379,8 +3739,9 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
-    </row>
-    <row r="324" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H323" s="1"/>
+    </row>
+    <row r="324" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -3388,8 +3749,9 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
-    </row>
-    <row r="325" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H324" s="1"/>
+    </row>
+    <row r="325" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -3397,8 +3759,9 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
-    </row>
-    <row r="326" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H325" s="1"/>
+    </row>
+    <row r="326" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -3406,8 +3769,9 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
-    </row>
-    <row r="327" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H326" s="1"/>
+    </row>
+    <row r="327" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -3415,8 +3779,9 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
-    </row>
-    <row r="328" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H327" s="1"/>
+    </row>
+    <row r="328" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -3424,8 +3789,9 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
-    </row>
-    <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H328" s="1"/>
+    </row>
+    <row r="329" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -3433,8 +3799,9 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
-    </row>
-    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H329" s="1"/>
+    </row>
+    <row r="330" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -3442,8 +3809,9 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
-    </row>
-    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H330" s="1"/>
+    </row>
+    <row r="331" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -3451,8 +3819,9 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
-    </row>
-    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H331" s="1"/>
+    </row>
+    <row r="332" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -3460,8 +3829,9 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
-    </row>
-    <row r="333" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H332" s="1"/>
+    </row>
+    <row r="333" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -3469,8 +3839,9 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
-    </row>
-    <row r="334" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H333" s="1"/>
+    </row>
+    <row r="334" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -3478,8 +3849,9 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
-    </row>
-    <row r="335" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H334" s="1"/>
+    </row>
+    <row r="335" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -3487,8 +3859,9 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
-    </row>
-    <row r="336" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H335" s="1"/>
+    </row>
+    <row r="336" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -3496,8 +3869,9 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
-    </row>
-    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H336" s="1"/>
+    </row>
+    <row r="337" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -3505,8 +3879,9 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
-    </row>
-    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H337" s="1"/>
+    </row>
+    <row r="338" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -3514,8 +3889,9 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
-    </row>
-    <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H338" s="1"/>
+    </row>
+    <row r="339" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -3523,8 +3899,9 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
-    </row>
-    <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H339" s="1"/>
+    </row>
+    <row r="340" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -3532,8 +3909,9 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
-    </row>
-    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H340" s="1"/>
+    </row>
+    <row r="341" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -3541,8 +3919,9 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
-    </row>
-    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H341" s="1"/>
+    </row>
+    <row r="342" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -3550,8 +3929,9 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
-    </row>
-    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H342" s="1"/>
+    </row>
+    <row r="343" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -3559,8 +3939,9 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
-    </row>
-    <row r="344" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H343" s="1"/>
+    </row>
+    <row r="344" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -3568,8 +3949,9 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
-    </row>
-    <row r="345" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H344" s="1"/>
+    </row>
+    <row r="345" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -3577,8 +3959,9 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
-    </row>
-    <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H345" s="1"/>
+    </row>
+    <row r="346" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -3586,8 +3969,9 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
-    </row>
-    <row r="347" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H346" s="1"/>
+    </row>
+    <row r="347" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -3595,8 +3979,9 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
-    </row>
-    <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H347" s="1"/>
+    </row>
+    <row r="348" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -3604,8 +3989,9 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
-    </row>
-    <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H348" s="1"/>
+    </row>
+    <row r="349" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -3613,8 +3999,9 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
-    </row>
-    <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H349" s="1"/>
+    </row>
+    <row r="350" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -3622,8 +4009,9 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
-    </row>
-    <row r="351" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H350" s="1"/>
+    </row>
+    <row r="351" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -3631,8 +4019,9 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
-    </row>
-    <row r="352" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H351" s="1"/>
+    </row>
+    <row r="352" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -3640,8 +4029,9 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
-    </row>
-    <row r="353" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H352" s="1"/>
+    </row>
+    <row r="353" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -3649,8 +4039,9 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
-    </row>
-    <row r="354" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H353" s="1"/>
+    </row>
+    <row r="354" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -3658,8 +4049,9 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
-    </row>
-    <row r="355" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H354" s="1"/>
+    </row>
+    <row r="355" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -3667,8 +4059,9 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
-    </row>
-    <row r="356" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H355" s="1"/>
+    </row>
+    <row r="356" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -3676,8 +4069,9 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
-    </row>
-    <row r="357" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H356" s="1"/>
+    </row>
+    <row r="357" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -3685,8 +4079,9 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
-    </row>
-    <row r="358" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H357" s="1"/>
+    </row>
+    <row r="358" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -3694,8 +4089,9 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
-    </row>
-    <row r="359" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H358" s="1"/>
+    </row>
+    <row r="359" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -3703,8 +4099,9 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
-    </row>
-    <row r="360" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H359" s="1"/>
+    </row>
+    <row r="360" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -3712,8 +4109,9 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
-    </row>
-    <row r="361" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H360" s="1"/>
+    </row>
+    <row r="361" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -3721,8 +4119,9 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
-    </row>
-    <row r="362" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H361" s="1"/>
+    </row>
+    <row r="362" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -3730,8 +4129,9 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
-    </row>
-    <row r="363" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H362" s="1"/>
+    </row>
+    <row r="363" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -3739,8 +4139,9 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
-    </row>
-    <row r="364" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H363" s="1"/>
+    </row>
+    <row r="364" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -3748,8 +4149,9 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
-    </row>
-    <row r="365" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H364" s="1"/>
+    </row>
+    <row r="365" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -3757,8 +4159,9 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
-    </row>
-    <row r="366" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H365" s="1"/>
+    </row>
+    <row r="366" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -3766,8 +4169,9 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
-    </row>
-    <row r="367" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H366" s="1"/>
+    </row>
+    <row r="367" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -3775,8 +4179,9 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
-    </row>
-    <row r="368" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H367" s="1"/>
+    </row>
+    <row r="368" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -3784,8 +4189,9 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
-    </row>
-    <row r="369" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H368" s="1"/>
+    </row>
+    <row r="369" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -3793,8 +4199,9 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
-    </row>
-    <row r="370" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H369" s="1"/>
+    </row>
+    <row r="370" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -3802,8 +4209,9 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
-    </row>
-    <row r="371" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H370" s="1"/>
+    </row>
+    <row r="371" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -3811,8 +4219,9 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
-    </row>
-    <row r="372" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H371" s="1"/>
+    </row>
+    <row r="372" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -3820,8 +4229,9 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
-    </row>
-    <row r="373" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H372" s="1"/>
+    </row>
+    <row r="373" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -3829,8 +4239,9 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
-    </row>
-    <row r="374" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H373" s="1"/>
+    </row>
+    <row r="374" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -3838,8 +4249,9 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
-    </row>
-    <row r="375" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H374" s="1"/>
+    </row>
+    <row r="375" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -3847,8 +4259,9 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
-    </row>
-    <row r="376" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H375" s="1"/>
+    </row>
+    <row r="376" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -3856,8 +4269,9 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
-    </row>
-    <row r="377" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H376" s="1"/>
+    </row>
+    <row r="377" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -3865,8 +4279,9 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
-    </row>
-    <row r="378" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H377" s="1"/>
+    </row>
+    <row r="378" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -3874,8 +4289,9 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
-    </row>
-    <row r="379" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H378" s="1"/>
+    </row>
+    <row r="379" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -3883,8 +4299,9 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
-    </row>
-    <row r="380" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H379" s="1"/>
+    </row>
+    <row r="380" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -3892,8 +4309,9 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
-    </row>
-    <row r="381" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H380" s="1"/>
+    </row>
+    <row r="381" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -3901,8 +4319,9 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
-    </row>
-    <row r="382" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H381" s="1"/>
+    </row>
+    <row r="382" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -3910,8 +4329,9 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
-    </row>
-    <row r="383" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H382" s="1"/>
+    </row>
+    <row r="383" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -3919,8 +4339,9 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
-    </row>
-    <row r="384" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H383" s="1"/>
+    </row>
+    <row r="384" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -3928,8 +4349,9 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
-    </row>
-    <row r="385" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H384" s="1"/>
+    </row>
+    <row r="385" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -3937,8 +4359,9 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
-    </row>
-    <row r="386" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H385" s="1"/>
+    </row>
+    <row r="386" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -3946,8 +4369,9 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
-    </row>
-    <row r="387" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H386" s="1"/>
+    </row>
+    <row r="387" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -3955,8 +4379,9 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
-    </row>
-    <row r="388" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H387" s="1"/>
+    </row>
+    <row r="388" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -3964,8 +4389,9 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
-    </row>
-    <row r="389" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H388" s="1"/>
+    </row>
+    <row r="389" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -3973,8 +4399,9 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
-    </row>
-    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H389" s="1"/>
+    </row>
+    <row r="390" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -3982,8 +4409,9 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-    </row>
-    <row r="391" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H390" s="1"/>
+    </row>
+    <row r="391" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -3991,8 +4419,9 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
-    </row>
-    <row r="392" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H391" s="1"/>
+    </row>
+    <row r="392" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -4000,8 +4429,9 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
-    </row>
-    <row r="393" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H392" s="1"/>
+    </row>
+    <row r="393" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -4009,8 +4439,9 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
-    </row>
-    <row r="394" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H393" s="1"/>
+    </row>
+    <row r="394" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -4018,8 +4449,9 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
-    </row>
-    <row r="395" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H394" s="1"/>
+    </row>
+    <row r="395" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -4027,8 +4459,9 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
-    </row>
-    <row r="396" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H395" s="1"/>
+    </row>
+    <row r="396" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -4036,8 +4469,9 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
-    </row>
-    <row r="397" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H396" s="1"/>
+    </row>
+    <row r="397" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -4045,8 +4479,9 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
-    </row>
-    <row r="398" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H397" s="1"/>
+    </row>
+    <row r="398" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -4054,8 +4489,9 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
-    </row>
-    <row r="399" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H398" s="1"/>
+    </row>
+    <row r="399" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -4063,8 +4499,9 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
-    </row>
-    <row r="400" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H399" s="1"/>
+    </row>
+    <row r="400" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -4072,8 +4509,9 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
-    </row>
-    <row r="401" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H400" s="1"/>
+    </row>
+    <row r="401" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -4081,8 +4519,9 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
-    </row>
-    <row r="402" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H401" s="1"/>
+    </row>
+    <row r="402" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -4090,8 +4529,9 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
-    </row>
-    <row r="403" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H402" s="1"/>
+    </row>
+    <row r="403" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -4099,8 +4539,9 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
-    </row>
-    <row r="404" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H403" s="1"/>
+    </row>
+    <row r="404" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -4108,8 +4549,9 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
-    </row>
-    <row r="405" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H404" s="1"/>
+    </row>
+    <row r="405" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -4117,8 +4559,9 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
-    </row>
-    <row r="406" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H405" s="1"/>
+    </row>
+    <row r="406" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -4126,8 +4569,9 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
-    </row>
-    <row r="407" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H406" s="1"/>
+    </row>
+    <row r="407" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -4135,8 +4579,9 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
-    </row>
-    <row r="408" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H407" s="1"/>
+    </row>
+    <row r="408" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -4144,8 +4589,9 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
-    </row>
-    <row r="409" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H408" s="1"/>
+    </row>
+    <row r="409" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -4153,8 +4599,9 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
-    </row>
-    <row r="410" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H409" s="1"/>
+    </row>
+    <row r="410" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -4162,8 +4609,9 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
-    </row>
-    <row r="411" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H410" s="1"/>
+    </row>
+    <row r="411" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -4171,8 +4619,9 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
-    </row>
-    <row r="412" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H411" s="1"/>
+    </row>
+    <row r="412" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -4180,8 +4629,9 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
-    </row>
-    <row r="413" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H412" s="1"/>
+    </row>
+    <row r="413" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -4189,8 +4639,9 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
-    </row>
-    <row r="414" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H413" s="1"/>
+    </row>
+    <row r="414" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -4198,8 +4649,9 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
-    </row>
-    <row r="415" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H414" s="1"/>
+    </row>
+    <row r="415" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -4207,8 +4659,9 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
-    </row>
-    <row r="416" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H415" s="1"/>
+    </row>
+    <row r="416" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -4216,8 +4669,9 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
-    </row>
-    <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H416" s="1"/>
+    </row>
+    <row r="417" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -4225,8 +4679,9 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
-    </row>
-    <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H417" s="1"/>
+    </row>
+    <row r="418" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -4234,8 +4689,9 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
-    </row>
-    <row r="419" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H418" s="1"/>
+    </row>
+    <row r="419" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -4243,8 +4699,9 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
-    </row>
-    <row r="420" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H419" s="1"/>
+    </row>
+    <row r="420" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -4252,8 +4709,9 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
-    </row>
-    <row r="421" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H420" s="1"/>
+    </row>
+    <row r="421" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -4261,8 +4719,9 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
-    </row>
-    <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H421" s="1"/>
+    </row>
+    <row r="422" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -4270,8 +4729,9 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
-    </row>
-    <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H422" s="1"/>
+    </row>
+    <row r="423" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -4279,8 +4739,9 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
-    </row>
-    <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H423" s="1"/>
+    </row>
+    <row r="424" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -4288,8 +4749,9 @@
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
-    </row>
-    <row r="425" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H424" s="1"/>
+    </row>
+    <row r="425" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -4297,8 +4759,9 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
-    </row>
-    <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H425" s="1"/>
+    </row>
+    <row r="426" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -4306,8 +4769,9 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
-    </row>
-    <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H426" s="1"/>
+    </row>
+    <row r="427" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -4315,8 +4779,9 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
-    </row>
-    <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H427" s="1"/>
+    </row>
+    <row r="428" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -4324,8 +4789,9 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
-    </row>
-    <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H428" s="1"/>
+    </row>
+    <row r="429" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -4333,8 +4799,9 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
-    </row>
-    <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H429" s="1"/>
+    </row>
+    <row r="430" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -4342,8 +4809,9 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
-    </row>
-    <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H430" s="1"/>
+    </row>
+    <row r="431" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -4351,8 +4819,9 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
-    </row>
-    <row r="432" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H431" s="1"/>
+    </row>
+    <row r="432" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -4360,8 +4829,9 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
-    </row>
-    <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H432" s="1"/>
+    </row>
+    <row r="433" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -4369,8 +4839,9 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
-    </row>
-    <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H433" s="1"/>
+    </row>
+    <row r="434" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -4378,8 +4849,9 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
-    </row>
-    <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H434" s="1"/>
+    </row>
+    <row r="435" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -4387,8 +4859,9 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
-    </row>
-    <row r="436" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H435" s="1"/>
+    </row>
+    <row r="436" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -4396,8 +4869,9 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
-    </row>
-    <row r="437" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H436" s="1"/>
+    </row>
+    <row r="437" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -4405,8 +4879,9 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
-    </row>
-    <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H437" s="1"/>
+    </row>
+    <row r="438" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -4414,8 +4889,9 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
-    </row>
-    <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H438" s="1"/>
+    </row>
+    <row r="439" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -4423,8 +4899,9 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
-    </row>
-    <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H439" s="1"/>
+    </row>
+    <row r="440" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -4432,8 +4909,9 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
-    </row>
-    <row r="441" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H440" s="1"/>
+    </row>
+    <row r="441" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -4441,8 +4919,9 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
-    </row>
-    <row r="442" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H441" s="1"/>
+    </row>
+    <row r="442" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -4450,8 +4929,9 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
-    </row>
-    <row r="443" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H442" s="1"/>
+    </row>
+    <row r="443" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -4459,8 +4939,9 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
-    </row>
-    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H443" s="1"/>
+    </row>
+    <row r="444" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -4468,8 +4949,9 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
-    </row>
-    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H444" s="1"/>
+    </row>
+    <row r="445" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -4477,8 +4959,9 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
-    </row>
-    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H445" s="1"/>
+    </row>
+    <row r="446" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -4486,8 +4969,9 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
-    </row>
-    <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H446" s="1"/>
+    </row>
+    <row r="447" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -4495,8 +4979,9 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
-    </row>
-    <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H447" s="1"/>
+    </row>
+    <row r="448" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -4504,8 +4989,9 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
-    </row>
-    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H448" s="1"/>
+    </row>
+    <row r="449" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -4513,8 +4999,9 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
-    </row>
-    <row r="450" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H449" s="1"/>
+    </row>
+    <row r="450" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -4522,8 +5009,9 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
-    </row>
-    <row r="451" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H450" s="1"/>
+    </row>
+    <row r="451" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -4531,8 +5019,9 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
-    </row>
-    <row r="452" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H451" s="1"/>
+    </row>
+    <row r="452" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -4540,8 +5029,9 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
-    </row>
-    <row r="453" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H452" s="1"/>
+    </row>
+    <row r="453" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -4549,8 +5039,9 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
-    </row>
-    <row r="454" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H453" s="1"/>
+    </row>
+    <row r="454" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -4558,8 +5049,9 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
-    </row>
-    <row r="455" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H454" s="1"/>
+    </row>
+    <row r="455" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -4567,8 +5059,9 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
-    </row>
-    <row r="456" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H455" s="1"/>
+    </row>
+    <row r="456" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -4576,8 +5069,9 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
-    </row>
-    <row r="457" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H456" s="1"/>
+    </row>
+    <row r="457" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -4585,8 +5079,9 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
-    </row>
-    <row r="458" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H457" s="1"/>
+    </row>
+    <row r="458" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -4594,8 +5089,9 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
-    </row>
-    <row r="459" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H458" s="1"/>
+    </row>
+    <row r="459" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -4603,8 +5099,9 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
-    </row>
-    <row r="460" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H459" s="1"/>
+    </row>
+    <row r="460" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -4612,8 +5109,9 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
-    </row>
-    <row r="461" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H460" s="1"/>
+    </row>
+    <row r="461" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -4621,8 +5119,9 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
-    </row>
-    <row r="462" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H461" s="1"/>
+    </row>
+    <row r="462" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -4630,8 +5129,9 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
-    </row>
-    <row r="463" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H462" s="1"/>
+    </row>
+    <row r="463" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -4639,8 +5139,9 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
-    </row>
-    <row r="464" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H463" s="1"/>
+    </row>
+    <row r="464" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -4648,8 +5149,9 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
-    </row>
-    <row r="465" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H464" s="1"/>
+    </row>
+    <row r="465" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -4657,8 +5159,9 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
-    </row>
-    <row r="466" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H465" s="1"/>
+    </row>
+    <row r="466" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -4666,8 +5169,9 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
-    </row>
-    <row r="467" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H466" s="1"/>
+    </row>
+    <row r="467" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -4675,8 +5179,9 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
-    </row>
-    <row r="468" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H467" s="1"/>
+    </row>
+    <row r="468" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -4684,8 +5189,9 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
-    </row>
-    <row r="469" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H468" s="1"/>
+    </row>
+    <row r="469" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -4693,8 +5199,9 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
-    </row>
-    <row r="470" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H469" s="1"/>
+    </row>
+    <row r="470" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -4702,8 +5209,9 @@
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
-    </row>
-    <row r="471" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H470" s="1"/>
+    </row>
+    <row r="471" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -4711,8 +5219,9 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
-    </row>
-    <row r="472" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H471" s="1"/>
+    </row>
+    <row r="472" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -4720,8 +5229,9 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
-    </row>
-    <row r="473" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H472" s="1"/>
+    </row>
+    <row r="473" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -4729,8 +5239,9 @@
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
-    </row>
-    <row r="474" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H473" s="1"/>
+    </row>
+    <row r="474" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -4738,8 +5249,9 @@
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
-    </row>
-    <row r="475" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H474" s="1"/>
+    </row>
+    <row r="475" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -4747,8 +5259,9 @@
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
-    </row>
-    <row r="476" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H475" s="1"/>
+    </row>
+    <row r="476" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -4756,8 +5269,9 @@
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
-    </row>
-    <row r="477" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H476" s="1"/>
+    </row>
+    <row r="477" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -4765,8 +5279,9 @@
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
-    </row>
-    <row r="478" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H477" s="1"/>
+    </row>
+    <row r="478" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -4774,8 +5289,9 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
-    </row>
-    <row r="479" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H478" s="1"/>
+    </row>
+    <row r="479" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -4783,8 +5299,9 @@
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
-    </row>
-    <row r="480" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H479" s="1"/>
+    </row>
+    <row r="480" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -4792,8 +5309,9 @@
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
-    </row>
-    <row r="481" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H480" s="1"/>
+    </row>
+    <row r="481" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -4801,8 +5319,9 @@
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
-    </row>
-    <row r="482" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H481" s="1"/>
+    </row>
+    <row r="482" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -4810,8 +5329,9 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
-    </row>
-    <row r="483" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H482" s="1"/>
+    </row>
+    <row r="483" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -4819,8 +5339,9 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H483" s="1"/>
+    </row>
+    <row r="484" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -4828,8 +5349,9 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
-    </row>
-    <row r="485" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H484" s="1"/>
+    </row>
+    <row r="485" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -4837,8 +5359,9 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H485" s="1"/>
+    </row>
+    <row r="486" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -4846,8 +5369,9 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
-    </row>
-    <row r="487" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H486" s="1"/>
+    </row>
+    <row r="487" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -4855,8 +5379,9 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
-    </row>
-    <row r="488" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H487" s="1"/>
+    </row>
+    <row r="488" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -4864,8 +5389,9 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
-    </row>
-    <row r="489" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H488" s="1"/>
+    </row>
+    <row r="489" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -4873,8 +5399,9 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
-    </row>
-    <row r="490" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H489" s="1"/>
+    </row>
+    <row r="490" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -4882,8 +5409,9 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
-    </row>
-    <row r="491" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H490" s="1"/>
+    </row>
+    <row r="491" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -4891,8 +5419,9 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
-    </row>
-    <row r="492" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H491" s="1"/>
+    </row>
+    <row r="492" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -4900,8 +5429,9 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
-    </row>
-    <row r="493" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H492" s="1"/>
+    </row>
+    <row r="493" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -4909,8 +5439,9 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
-    </row>
-    <row r="494" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H493" s="1"/>
+    </row>
+    <row r="494" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -4918,8 +5449,9 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
-    </row>
-    <row r="495" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H494" s="1"/>
+    </row>
+    <row r="495" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -4927,8 +5459,9 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
-    </row>
-    <row r="496" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H495" s="1"/>
+    </row>
+    <row r="496" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -4936,8 +5469,9 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H496" s="1"/>
+    </row>
+    <row r="497" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -4945,8 +5479,9 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H497" s="1"/>
+    </row>
+    <row r="498" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -4954,8 +5489,9 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
-    </row>
-    <row r="499" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H498" s="1"/>
+    </row>
+    <row r="499" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -4963,8 +5499,9 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
-    </row>
-    <row r="500" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H499" s="1"/>
+    </row>
+    <row r="500" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -4972,8 +5509,9 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H500" s="1"/>
+    </row>
+    <row r="501" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -4981,8 +5519,9 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
-    </row>
-    <row r="502" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H501" s="1"/>
+    </row>
+    <row r="502" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -4990,8 +5529,9 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H502" s="1"/>
+    </row>
+    <row r="503" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -4999,8 +5539,9 @@
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
-    </row>
-    <row r="504" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H503" s="1"/>
+    </row>
+    <row r="504" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -5008,8 +5549,9 @@
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
-    </row>
-    <row r="505" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H504" s="1"/>
+    </row>
+    <row r="505" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -5017,8 +5559,9 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
-    </row>
-    <row r="506" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H505" s="1"/>
+    </row>
+    <row r="506" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -5026,8 +5569,9 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
-    </row>
-    <row r="507" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H506" s="1"/>
+    </row>
+    <row r="507" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -5035,8 +5579,9 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
-    </row>
-    <row r="508" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H507" s="1"/>
+    </row>
+    <row r="508" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -5044,8 +5589,9 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
-    </row>
-    <row r="509" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H508" s="1"/>
+    </row>
+    <row r="509" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -5053,8 +5599,9 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
-    </row>
-    <row r="510" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H509" s="1"/>
+    </row>
+    <row r="510" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -5062,8 +5609,9 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
-    </row>
-    <row r="511" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H510" s="1"/>
+    </row>
+    <row r="511" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -5071,8 +5619,9 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
-    </row>
-    <row r="512" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H511" s="1"/>
+    </row>
+    <row r="512" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -5080,8 +5629,9 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
-    </row>
-    <row r="513" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H512" s="1"/>
+    </row>
+    <row r="513" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -5089,8 +5639,9 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
-    </row>
-    <row r="514" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H513" s="1"/>
+    </row>
+    <row r="514" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -5098,8 +5649,9 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
-    </row>
-    <row r="515" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H514" s="1"/>
+    </row>
+    <row r="515" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -5107,8 +5659,9 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
-    </row>
-    <row r="516" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H515" s="1"/>
+    </row>
+    <row r="516" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -5116,8 +5669,9 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
-    </row>
-    <row r="517" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H516" s="1"/>
+    </row>
+    <row r="517" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -5125,8 +5679,9 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
-    </row>
-    <row r="518" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H517" s="1"/>
+    </row>
+    <row r="518" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -5134,8 +5689,9 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
-    </row>
-    <row r="519" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H518" s="1"/>
+    </row>
+    <row r="519" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -5143,8 +5699,9 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
-    </row>
-    <row r="520" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H519" s="1"/>
+    </row>
+    <row r="520" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -5152,8 +5709,9 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
-    </row>
-    <row r="521" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H520" s="1"/>
+    </row>
+    <row r="521" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -5161,8 +5719,9 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
-    </row>
-    <row r="522" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H521" s="1"/>
+    </row>
+    <row r="522" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -5170,8 +5729,9 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
-    </row>
-    <row r="523" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H522" s="1"/>
+    </row>
+    <row r="523" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -5179,8 +5739,9 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
-    </row>
-    <row r="524" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H523" s="1"/>
+    </row>
+    <row r="524" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -5188,8 +5749,9 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
-    </row>
-    <row r="525" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H524" s="1"/>
+    </row>
+    <row r="525" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -5197,8 +5759,9 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
-    </row>
-    <row r="526" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H525" s="1"/>
+    </row>
+    <row r="526" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -5206,8 +5769,9 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
-    </row>
-    <row r="527" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H526" s="1"/>
+    </row>
+    <row r="527" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -5215,8 +5779,9 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
-    </row>
-    <row r="528" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H527" s="1"/>
+    </row>
+    <row r="528" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -5224,8 +5789,9 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
-    </row>
-    <row r="529" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H528" s="1"/>
+    </row>
+    <row r="529" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -5233,8 +5799,9 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
-    </row>
-    <row r="530" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H529" s="1"/>
+    </row>
+    <row r="530" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -5242,8 +5809,9 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
-    </row>
-    <row r="531" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H530" s="1"/>
+    </row>
+    <row r="531" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -5251,8 +5819,9 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
-    </row>
-    <row r="532" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H531" s="1"/>
+    </row>
+    <row r="532" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -5260,8 +5829,9 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
-    </row>
-    <row r="533" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H532" s="1"/>
+    </row>
+    <row r="533" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -5269,8 +5839,9 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
-    </row>
-    <row r="534" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H533" s="1"/>
+    </row>
+    <row r="534" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -5278,8 +5849,9 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
-    </row>
-    <row r="535" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H534" s="1"/>
+    </row>
+    <row r="535" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -5287,8 +5859,9 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
-    </row>
-    <row r="536" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H535" s="1"/>
+    </row>
+    <row r="536" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -5296,8 +5869,9 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
-    </row>
-    <row r="537" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H536" s="1"/>
+    </row>
+    <row r="537" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -5305,8 +5879,9 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
-    </row>
-    <row r="538" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H537" s="1"/>
+    </row>
+    <row r="538" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -5314,8 +5889,9 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
-    </row>
-    <row r="539" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H538" s="1"/>
+    </row>
+    <row r="539" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -5323,8 +5899,9 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
-    </row>
-    <row r="540" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H539" s="1"/>
+    </row>
+    <row r="540" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -5332,8 +5909,9 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
-    </row>
-    <row r="541" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H540" s="1"/>
+    </row>
+    <row r="541" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -5341,8 +5919,9 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
-    </row>
-    <row r="542" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H541" s="1"/>
+    </row>
+    <row r="542" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -5350,8 +5929,9 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
-    </row>
-    <row r="543" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H542" s="1"/>
+    </row>
+    <row r="543" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -5359,8 +5939,9 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
-    </row>
-    <row r="544" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H543" s="1"/>
+    </row>
+    <row r="544" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -5368,8 +5949,9 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
-    </row>
-    <row r="545" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H544" s="1"/>
+    </row>
+    <row r="545" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -5377,8 +5959,9 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
-    </row>
-    <row r="546" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H545" s="1"/>
+    </row>
+    <row r="546" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -5386,8 +5969,9 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
-    </row>
-    <row r="547" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H546" s="1"/>
+    </row>
+    <row r="547" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -5395,8 +5979,9 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
-    </row>
-    <row r="548" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H547" s="1"/>
+    </row>
+    <row r="548" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -5404,8 +5989,9 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
-    </row>
-    <row r="549" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H548" s="1"/>
+    </row>
+    <row r="549" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -5413,8 +5999,9 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
-    </row>
-    <row r="550" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H549" s="1"/>
+    </row>
+    <row r="550" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -5422,8 +6009,9 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
-    </row>
-    <row r="551" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H550" s="1"/>
+    </row>
+    <row r="551" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -5431,8 +6019,9 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
-    </row>
-    <row r="552" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H551" s="1"/>
+    </row>
+    <row r="552" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -5440,8 +6029,9 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
-    </row>
-    <row r="553" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H552" s="1"/>
+    </row>
+    <row r="553" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -5449,8 +6039,9 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
-    </row>
-    <row r="554" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H553" s="1"/>
+    </row>
+    <row r="554" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -5458,8 +6049,9 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
-    </row>
-    <row r="555" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H554" s="1"/>
+    </row>
+    <row r="555" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -5467,8 +6059,9 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
-    </row>
-    <row r="556" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H555" s="1"/>
+    </row>
+    <row r="556" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -5476,8 +6069,9 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
-    </row>
-    <row r="557" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H556" s="1"/>
+    </row>
+    <row r="557" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -5485,8 +6079,9 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
-    </row>
-    <row r="558" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H557" s="1"/>
+    </row>
+    <row r="558" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -5494,8 +6089,9 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
-    </row>
-    <row r="559" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H558" s="1"/>
+    </row>
+    <row r="559" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -5503,8 +6099,9 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
-    </row>
-    <row r="560" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H559" s="1"/>
+    </row>
+    <row r="560" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -5512,8 +6109,9 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
-    </row>
-    <row r="561" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H560" s="1"/>
+    </row>
+    <row r="561" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -5521,8 +6119,9 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
-    </row>
-    <row r="562" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H561" s="1"/>
+    </row>
+    <row r="562" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -5530,8 +6129,9 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
-    </row>
-    <row r="563" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H562" s="1"/>
+    </row>
+    <row r="563" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -5539,8 +6139,9 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
-    </row>
-    <row r="564" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H563" s="1"/>
+    </row>
+    <row r="564" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -5548,8 +6149,9 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
-    </row>
-    <row r="565" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H564" s="1"/>
+    </row>
+    <row r="565" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -5557,8 +6159,9 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
-    </row>
-    <row r="566" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H565" s="1"/>
+    </row>
+    <row r="566" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -5566,8 +6169,9 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
-    </row>
-    <row r="567" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H566" s="1"/>
+    </row>
+    <row r="567" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -5575,8 +6179,9 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
-    </row>
-    <row r="568" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H567" s="1"/>
+    </row>
+    <row r="568" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -5584,8 +6189,9 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
-    </row>
-    <row r="569" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H568" s="1"/>
+    </row>
+    <row r="569" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -5593,8 +6199,9 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
-    </row>
-    <row r="570" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H569" s="1"/>
+    </row>
+    <row r="570" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -5602,8 +6209,9 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
-    </row>
-    <row r="571" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H570" s="1"/>
+    </row>
+    <row r="571" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -5611,8 +6219,9 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
-    </row>
-    <row r="572" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H571" s="1"/>
+    </row>
+    <row r="572" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -5620,8 +6229,9 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
-    </row>
-    <row r="573" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H572" s="1"/>
+    </row>
+    <row r="573" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -5629,8 +6239,9 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
-    </row>
-    <row r="574" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H573" s="1"/>
+    </row>
+    <row r="574" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -5638,8 +6249,9 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
-    </row>
-    <row r="575" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H574" s="1"/>
+    </row>
+    <row r="575" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -5647,8 +6259,9 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
-    </row>
-    <row r="576" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H575" s="1"/>
+    </row>
+    <row r="576" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -5656,8 +6269,9 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
-    </row>
-    <row r="577" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H576" s="1"/>
+    </row>
+    <row r="577" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -5665,8 +6279,9 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
-    </row>
-    <row r="578" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H577" s="1"/>
+    </row>
+    <row r="578" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -5674,8 +6289,9 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
-    </row>
-    <row r="579" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H578" s="1"/>
+    </row>
+    <row r="579" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -5683,8 +6299,9 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
-    </row>
-    <row r="580" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H579" s="1"/>
+    </row>
+    <row r="580" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -5692,8 +6309,9 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
-    </row>
-    <row r="581" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H580" s="1"/>
+    </row>
+    <row r="581" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -5701,8 +6319,9 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
-    </row>
-    <row r="582" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H581" s="1"/>
+    </row>
+    <row r="582" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -5710,8 +6329,9 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
-    </row>
-    <row r="583" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H582" s="1"/>
+    </row>
+    <row r="583" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -5719,8 +6339,9 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
-    </row>
-    <row r="584" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H583" s="1"/>
+    </row>
+    <row r="584" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -5728,8 +6349,9 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
-    </row>
-    <row r="585" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H584" s="1"/>
+    </row>
+    <row r="585" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -5737,8 +6359,9 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
       <c r="G585" s="1"/>
-    </row>
-    <row r="586" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H585" s="1"/>
+    </row>
+    <row r="586" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -5746,8 +6369,9 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
       <c r="G586" s="1"/>
-    </row>
-    <row r="587" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H586" s="1"/>
+    </row>
+    <row r="587" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -5755,8 +6379,9 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
       <c r="G587" s="1"/>
-    </row>
-    <row r="588" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H587" s="1"/>
+    </row>
+    <row r="588" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -5764,8 +6389,9 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
       <c r="G588" s="1"/>
-    </row>
-    <row r="589" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H588" s="1"/>
+    </row>
+    <row r="589" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -5773,8 +6399,9 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
-    </row>
-    <row r="590" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H589" s="1"/>
+    </row>
+    <row r="590" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -5782,8 +6409,9 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
       <c r="G590" s="1"/>
-    </row>
-    <row r="591" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H590" s="1"/>
+    </row>
+    <row r="591" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -5791,8 +6419,9 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
       <c r="G591" s="1"/>
-    </row>
-    <row r="592" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H591" s="1"/>
+    </row>
+    <row r="592" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -5800,8 +6429,9 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
       <c r="G592" s="1"/>
-    </row>
-    <row r="593" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H592" s="1"/>
+    </row>
+    <row r="593" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -5809,8 +6439,9 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
-    </row>
-    <row r="594" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H593" s="1"/>
+    </row>
+    <row r="594" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -5818,8 +6449,9 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
-    </row>
-    <row r="595" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H594" s="1"/>
+    </row>
+    <row r="595" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -5827,8 +6459,9 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
-    </row>
-    <row r="596" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H595" s="1"/>
+    </row>
+    <row r="596" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -5836,8 +6469,9 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
-    </row>
-    <row r="597" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H596" s="1"/>
+    </row>
+    <row r="597" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -5845,8 +6479,9 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
-    </row>
-    <row r="598" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H597" s="1"/>
+    </row>
+    <row r="598" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -5854,8 +6489,9 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
-    </row>
-    <row r="599" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H598" s="1"/>
+    </row>
+    <row r="599" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -5863,8 +6499,9 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
-    </row>
-    <row r="600" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H599" s="1"/>
+    </row>
+    <row r="600" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -5872,8 +6509,9 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
-    </row>
-    <row r="601" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H600" s="1"/>
+    </row>
+    <row r="601" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -5881,8 +6519,9 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
-    </row>
-    <row r="602" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H601" s="1"/>
+    </row>
+    <row r="602" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -5890,8 +6529,9 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
-    </row>
-    <row r="603" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H602" s="1"/>
+    </row>
+    <row r="603" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -5899,8 +6539,9 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
-    </row>
-    <row r="604" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H603" s="1"/>
+    </row>
+    <row r="604" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -5908,8 +6549,9 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
-    </row>
-    <row r="605" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H604" s="1"/>
+    </row>
+    <row r="605" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -5917,8 +6559,9 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
       <c r="G605" s="1"/>
-    </row>
-    <row r="606" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H605" s="1"/>
+    </row>
+    <row r="606" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -5926,8 +6569,9 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
-    </row>
-    <row r="607" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H606" s="1"/>
+    </row>
+    <row r="607" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -5935,8 +6579,9 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
-    </row>
-    <row r="608" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H607" s="1"/>
+    </row>
+    <row r="608" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -5944,8 +6589,9 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
-    </row>
-    <row r="609" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H608" s="1"/>
+    </row>
+    <row r="609" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -5953,8 +6599,9 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
-    </row>
-    <row r="610" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H609" s="1"/>
+    </row>
+    <row r="610" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -5962,8 +6609,9 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
-    </row>
-    <row r="611" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H610" s="1"/>
+    </row>
+    <row r="611" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -5971,8 +6619,9 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
       <c r="G611" s="1"/>
-    </row>
-    <row r="612" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H611" s="1"/>
+    </row>
+    <row r="612" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -5980,8 +6629,9 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
-    </row>
-    <row r="613" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H612" s="1"/>
+    </row>
+    <row r="613" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -5989,8 +6639,9 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
-    </row>
-    <row r="614" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H613" s="1"/>
+    </row>
+    <row r="614" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -5998,8 +6649,9 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
-    </row>
-    <row r="615" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H614" s="1"/>
+    </row>
+    <row r="615" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -6007,8 +6659,9 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
-    </row>
-    <row r="616" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H615" s="1"/>
+    </row>
+    <row r="616" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -6016,8 +6669,9 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
-    </row>
-    <row r="617" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H616" s="1"/>
+    </row>
+    <row r="617" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -6025,8 +6679,9 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
-    </row>
-    <row r="618" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H617" s="1"/>
+    </row>
+    <row r="618" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -6034,8 +6689,9 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
       <c r="G618" s="1"/>
-    </row>
-    <row r="619" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H618" s="1"/>
+    </row>
+    <row r="619" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -6043,8 +6699,9 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
       <c r="G619" s="1"/>
-    </row>
-    <row r="620" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H619" s="1"/>
+    </row>
+    <row r="620" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -6052,8 +6709,9 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
       <c r="G620" s="1"/>
-    </row>
-    <row r="621" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H620" s="1"/>
+    </row>
+    <row r="621" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -6061,8 +6719,9 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
-    </row>
-    <row r="622" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H621" s="1"/>
+    </row>
+    <row r="622" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -6070,8 +6729,9 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
-    </row>
-    <row r="623" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H622" s="1"/>
+    </row>
+    <row r="623" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -6079,8 +6739,9 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
       <c r="G623" s="1"/>
-    </row>
-    <row r="624" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H623" s="1"/>
+    </row>
+    <row r="624" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -6088,8 +6749,9 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
       <c r="G624" s="1"/>
-    </row>
-    <row r="625" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H624" s="1"/>
+    </row>
+    <row r="625" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -6097,8 +6759,9 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
-    </row>
-    <row r="626" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H625" s="1"/>
+    </row>
+    <row r="626" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -6106,8 +6769,9 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
-    </row>
-    <row r="627" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H626" s="1"/>
+    </row>
+    <row r="627" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -6115,8 +6779,9 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
-    </row>
-    <row r="628" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H627" s="1"/>
+    </row>
+    <row r="628" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -6124,8 +6789,9 @@
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
-    </row>
-    <row r="629" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H628" s="1"/>
+    </row>
+    <row r="629" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -6133,8 +6799,9 @@
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
-    </row>
-    <row r="630" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H629" s="1"/>
+    </row>
+    <row r="630" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -6142,6 +6809,7 @@
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
+      <c r="H630" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
